--- a/entry/eb07/eb07-entries-s.xlsx
+++ b/entry/eb07/eb07-entries-s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="345" windowWidth="21930" windowHeight="16740" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="345" windowWidth="21930" windowHeight="16740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="eb07-s01" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,13 @@
     <sheet name="eb07-s03" sheetId="3" r:id="rId3"/>
     <sheet name="eb07-s04" sheetId="4" r:id="rId4"/>
     <sheet name="eb07-s05" sheetId="5" r:id="rId5"/>
+    <sheet name="eb07-s06" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Entry_Stats" localSheetId="0">'eb07-s01'!$A$2:$E$458</definedName>
     <definedName name="Entry_Stats" localSheetId="1">'eb07-s02'!$A$2:$E$357</definedName>
     <definedName name="Entry_Stats" localSheetId="4">'eb07-s05'!$A$2:$E$243</definedName>
+    <definedName name="Entry_Stats" localSheetId="5">'eb07-s06'!$A$2:$E$77</definedName>
     <definedName name="Entry_Stats_1" localSheetId="2">'eb07-s03'!$A$2:$E$199</definedName>
     <definedName name="Entry_Stats_1" localSheetId="3">'eb07-s04'!$A$2:$E$267</definedName>
   </definedNames>
@@ -91,11 +93,22 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="6" name="Entry_Stats5" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="D:\knowledge-project\kp2\entry\eb07\s06\4-entry-tei\Entry_Stats.txt" delimited="0">
+      <textFields count="5">
+        <textField/>
+        <textField position="3"/>
+        <textField position="28"/>
+        <textField position="68"/>
+        <textField position="73"/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="3050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="3201">
   <si>
     <t>eb07-19-s01-0594-01.xml</t>
   </si>
@@ -9245,6 +9258,459 @@
   </si>
   <si>
     <t>partial entry added to main entry in s03.</t>
+  </si>
+  <si>
+    <t>eb07-s06</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0001-01.xml</t>
+  </si>
+  <si>
+    <t>SURVEYING</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0007-01.xml</t>
+  </si>
+  <si>
+    <t>SURVIVORSHIP</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0007-02.xml</t>
+  </si>
+  <si>
+    <t>SUSA</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0007-03.xml</t>
+  </si>
+  <si>
+    <t>SUSEDOON</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0007-04.xml</t>
+  </si>
+  <si>
+    <t>SUSPENSION</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0007-05.xml</t>
+  </si>
+  <si>
+    <t>SUSPENSION BRIDGE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0008-01.xml</t>
+  </si>
+  <si>
+    <t>SUSSEX</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0010-01.xml</t>
+  </si>
+  <si>
+    <t>SUTALURY</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0010-02.xml</t>
+  </si>
+  <si>
+    <t>SUTCHANA</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0010-03.xml</t>
+  </si>
+  <si>
+    <t>SUTHERLAND</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0012-01.xml</t>
+  </si>
+  <si>
+    <t>SUTLER</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0012-02.xml</t>
+  </si>
+  <si>
+    <t>SUTTON-COLDFIELD</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0012-03.xml</t>
+  </si>
+  <si>
+    <t>SUTULEGE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0012-04.xml</t>
+  </si>
+  <si>
+    <t>SWAFFHAM</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0012-05.xml</t>
+  </si>
+  <si>
+    <t>SWALLY</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0012-06.xml</t>
+  </si>
+  <si>
+    <t>SWAMMERDAM, John</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0012-07.xml</t>
+  </si>
+  <si>
+    <t>SWAN Isles</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0012-08.xml</t>
+  </si>
+  <si>
+    <t>SWANAGE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0013-01.xml</t>
+  </si>
+  <si>
+    <t>SWANPAN</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0013-02.xml</t>
+  </si>
+  <si>
+    <t>SWANSEA</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0013-03.xml</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0029-01.xml</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0032-01.xml</t>
+  </si>
+  <si>
+    <t>SWEDENBORG, Emanuel</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0034-01.xml</t>
+  </si>
+  <si>
+    <t>SWEEP</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0034-02.xml</t>
+  </si>
+  <si>
+    <t>SWIFT, Jonathan</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0039-01.xml</t>
+  </si>
+  <si>
+    <t>SWIMMING</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0042-01.xml</t>
+  </si>
+  <si>
+    <t>SWINDON</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0042-02.xml</t>
+  </si>
+  <si>
+    <t>SWINESHEAD</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0042-03.xml</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0051-01.xml</t>
+  </si>
+  <si>
+    <t>SWORD</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0051-02.xml</t>
+  </si>
+  <si>
+    <t>SYDABAD</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0051-03.xml</t>
+  </si>
+  <si>
+    <t>SYDAPORUM</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0051-04.xml</t>
+  </si>
+  <si>
+    <t>SYDENHAM, Thomas</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0052-01.xml</t>
+  </si>
+  <si>
+    <t>SYDNEY</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0052-02.xml</t>
+  </si>
+  <si>
+    <t>SYENE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0052-03.xml</t>
+  </si>
+  <si>
+    <t>SYLAH</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0053-01.xml</t>
+  </si>
+  <si>
+    <t>SYLLA</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0053-02.xml</t>
+  </si>
+  <si>
+    <t>SYLLABLE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0053-03.xml</t>
+  </si>
+  <si>
+    <t>SYLLABUS</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0053-04.xml</t>
+  </si>
+  <si>
+    <t>SYLLOGISM</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0053-05.xml</t>
+  </si>
+  <si>
+    <t>SYMBOL</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0053-06.xml</t>
+  </si>
+  <si>
+    <t>SYMMACHUS, Quintus Aurelius</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0053-07.xml</t>
+  </si>
+  <si>
+    <t>SYMPATHY</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0053-08.xml</t>
+  </si>
+  <si>
+    <t>SYMPHEROPOLE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0053-09.xml</t>
+  </si>
+  <si>
+    <t>SYMPHONY</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-01.xml</t>
+  </si>
+  <si>
+    <t>SYMPLOCE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-02.xml</t>
+  </si>
+  <si>
+    <t>SYMPOSIARCH</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-03.xml</t>
+  </si>
+  <si>
+    <t>SYNÆRESIS, Contraction</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-04.xml</t>
+  </si>
+  <si>
+    <t>SYNAGOGUE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-05.xml</t>
+  </si>
+  <si>
+    <t>SYNALOEPHA</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-06.xml</t>
+  </si>
+  <si>
+    <t>SYNCELLUS</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-07.xml</t>
+  </si>
+  <si>
+    <t>SYNCHRONISM</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-08.xml</t>
+  </si>
+  <si>
+    <t>SYNCOPATION</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-09.xml</t>
+  </si>
+  <si>
+    <t>SYNCOPE, Fainting</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-10.xml</t>
+  </si>
+  <si>
+    <t>SYNDIC</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-11.xml</t>
+  </si>
+  <si>
+    <t>SYNECDOCHE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-12.xml</t>
+  </si>
+  <si>
+    <t>SYNECPHONESIS</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-13.xml</t>
+  </si>
+  <si>
+    <t>SYNOD</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-14.xml</t>
+  </si>
+  <si>
+    <t>SYNODALS</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-15.xml</t>
+  </si>
+  <si>
+    <t>SYNODICAL</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-16.xml</t>
+  </si>
+  <si>
+    <t>SYNOECIA</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-17.xml</t>
+  </si>
+  <si>
+    <t>SYNONYMOUS</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-18.xml</t>
+  </si>
+  <si>
+    <t>SYNTAX</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0054-19.xml</t>
+  </si>
+  <si>
+    <t>SYNTHESIS</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0055-01.xml</t>
+  </si>
+  <si>
+    <t>SYRA</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0055-02.xml</t>
+  </si>
+  <si>
+    <t>SYRACUSE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0059-01.xml</t>
+  </si>
+  <si>
+    <t>SYRIA</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0059-02.xml</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0065-01.xml</t>
+  </si>
+  <si>
+    <t>SYRIAM</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0065-02.xml</t>
+  </si>
+  <si>
+    <t>SYRINGE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0065-03.xml</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0065-04.xml</t>
+  </si>
+  <si>
+    <t>SYSTYLE</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0065-05.xml</t>
+  </si>
+  <si>
+    <t>SYZYGY, Syzygia</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0065-06.xml</t>
+  </si>
+  <si>
+    <t>SZARVAS</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0065-07.xml</t>
+  </si>
+  <si>
+    <t>SZEGEDIN</t>
+  </si>
+  <si>
+    <t>eb07-21-s06-0066-01.xml</t>
+  </si>
+  <si>
+    <t>SZIGETH</t>
   </si>
 </sst>
 </file>
@@ -9392,6 +9858,10 @@
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24181,7 +24651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -28000,8 +28470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I243"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31495,4 +31965,1147 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3078</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3090</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C23" t="s">
+        <v>882</v>
+      </c>
+      <c r="D23">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D24">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D26">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3101</v>
+      </c>
+      <c r="D27">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3107</v>
+      </c>
+      <c r="D30">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D31">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D32">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D33">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D36">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D37">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D38">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D39">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D40">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3129</v>
+      </c>
+      <c r="D41">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D42">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D43">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D44">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D46">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D47">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D48">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D50">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D51">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D52">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D53">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D57">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D58">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D59">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D61">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D62">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D63">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D64">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D65">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D66">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D67">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D68">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D69">
+        <v>59</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D70">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D71">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D72">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D73">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D74">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3196</v>
+      </c>
+      <c r="D75">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D76">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D77">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/entry/eb07/eb07-entries-s.xlsx
+++ b/entry/eb07/eb07-entries-s.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="3201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="3202">
   <si>
     <t>eb07-19-s01-0594-01.xml</t>
   </si>
@@ -9711,6 +9711,9 @@
   </si>
   <si>
     <t>SZIGETH</t>
+  </si>
+  <si>
+    <t>format tables p002; formulas need correction.</t>
   </si>
 </sst>
 </file>
@@ -31972,7 +31975,7 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31982,7 +31985,8 @@
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -32030,6 +32034,12 @@
       <c r="F2" s="5">
         <v>43607</v>
       </c>
+      <c r="G2" s="5">
+        <v>43608</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3201</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
